--- a/Zeitaufzeichnung/Zeitaufzeichnung.xlsx
+++ b/Zeitaufzeichnung/Zeitaufzeichnung.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -66,6 +66,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -162,33 +163,33 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -220,7 +221,7 @@
       </c>
       <c r="E3" s="3" t="n">
         <f aca="false">SUM(D3:D50)</f>
-        <v>0.333333333333333</v>
+        <v>0.437500000000001</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -245,8 +246,13 @@
       <c r="B5" s="3" t="n">
         <v>0.4375</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="C5" s="3" t="n">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <f aca="false">C5-B5</f>
+        <v>0.104166666666667</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2"/>

--- a/Zeitaufzeichnung/Zeitaufzeichnung.xlsx
+++ b/Zeitaufzeichnung/Zeitaufzeichnung.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t xml:space="preserve">Romano</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t xml:space="preserve">12.5.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03.06.22</t>
   </si>
 </sst>
 </file>
@@ -163,10 +166,10 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -221,7 +224,7 @@
       </c>
       <c r="E3" s="3" t="n">
         <f aca="false">SUM(D3:D50)</f>
-        <v>0.437500000000001</v>
+        <v>0.687500000000001</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -255,10 +258,19 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <f aca="false">C6-B6</f>
+        <v>0.25</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2"/>

--- a/Zeitaufzeichnung/Zeitaufzeichnung.xlsx
+++ b/Zeitaufzeichnung/Zeitaufzeichnung.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t xml:space="preserve">Romano</t>
   </si>
@@ -43,6 +43,15 @@
     <t xml:space="preserve">Summe</t>
   </si>
   <si>
+    <t xml:space="preserve">05.04.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.04.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.04.22</t>
+  </si>
+  <si>
     <t xml:space="preserve">5.5.22</t>
   </si>
   <si>
@@ -53,16 +62,26 @@
   </si>
   <si>
     <t xml:space="preserve">03.06.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08.06.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09.06.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.06.22</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
-    <numFmt numFmtId="166" formatCode="hh:mm"/>
+    <numFmt numFmtId="165" formatCode="hh:mm"/>
+    <numFmt numFmtId="166" formatCode="[hh]:mm"/>
+    <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -129,7 +148,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -138,11 +157,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -166,10 +189,10 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -209,281 +232,335 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="n">
-        <v>0.395833333333333</v>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="D3" s="3" t="n">
+      <c r="B3" s="2" t="n">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="D3" s="2" t="n">
         <f aca="false">C3-B3</f>
-        <v>0.229166666666667</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="E3" s="3" t="n">
         <f aca="false">SUM(D3:D50)</f>
-        <v>0.687500000000001</v>
+        <v>1.95833333333333</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="2" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <f aca="false">C4-B4</f>
+        <v>0.333333333333333</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <f aca="false">C5-B5</f>
+        <v>0.166666666666667</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <f aca="false">C6-B6</f>
+        <v>0.229166666666667</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="n">
         <v>0.520833333333333</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C7" s="2" t="n">
         <v>0.625</v>
       </c>
-      <c r="D4" s="3" t="n">
-        <f aca="false">C4-B4</f>
+      <c r="D7" s="2" t="n">
+        <f aca="false">C7-B7</f>
         <v>0.104166666666667</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="3" t="n">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="n">
         <v>0.4375</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C8" s="2" t="n">
         <v>0.541666666666667</v>
       </c>
-      <c r="D5" s="3" t="n">
-        <f aca="false">C5-B5</f>
+      <c r="D8" s="2" t="n">
+        <f aca="false">C8-B8</f>
         <v>0.104166666666667</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="3" t="n">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="n">
         <v>0.583333333333333</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C9" s="2" t="n">
         <v>0.833333333333333</v>
       </c>
-      <c r="D6" s="3" t="n">
-        <f aca="false">C6-B6</f>
+      <c r="D9" s="2" t="n">
+        <f aca="false">C9-B9</f>
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="A10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <f aca="false">C10-B10</f>
+        <v>0.208333333333333</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="A11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <f aca="false">C11-B11</f>
+        <v>0.416666666666667</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="A12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <f aca="false">C12-B12</f>
+        <v>0.0625</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2"/>
+      <c r="A39" s="4"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2"/>
+      <c r="A40" s="4"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2"/>
+      <c r="A41" s="4"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2"/>
+      <c r="A42" s="4"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2"/>
+      <c r="A43" s="4"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2"/>
+      <c r="A44" s="4"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2"/>
+      <c r="A45" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Zeitaufzeichnung/Zeitaufzeichnung.xlsx
+++ b/Zeitaufzeichnung/Zeitaufzeichnung.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t xml:space="preserve">Romano</t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t xml:space="preserve">10.06.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.06.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.06.22</t>
   </si>
 </sst>
 </file>
@@ -189,10 +195,10 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -232,7 +238,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2" t="n">
@@ -247,11 +253,11 @@
       </c>
       <c r="E3" s="3" t="n">
         <f aca="false">SUM(D3:D50)</f>
-        <v>1.95833333333333</v>
+        <v>2.16666666666667</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="2" t="n">
@@ -266,7 +272,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="2" t="n">
@@ -386,16 +392,34 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="A13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <f aca="false">C13-B13</f>
+        <v>0.0833333333333333</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="A14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <f aca="false">C14-B14</f>
+        <v>0.125</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4"/>
@@ -565,7 +589,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
